--- a/document/系统测试用例.xlsx
+++ b/document/系统测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WeiCheng Xin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBDEB9-00D7-4CD6-9391-F02310E14A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2776748C-9112-4258-A8E4-BFEC0D60FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="383">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2512,26 +2512,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-012</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>创建表格</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -2753,26 +2733,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-013</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>测试使用非法数据是否成功</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -2860,46 +2820,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-014</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-015</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>整体风格一致性验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3059,110 +2979,6 @@
     <t>浏览器兼容性验证</t>
   </si>
   <si>
-    <t>兼容性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-016</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-017</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-018</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-019</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-020</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>风险操作提示验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3217,6 +3033,400 @@
       </rPr>
       <t>testcase-010</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发编辑性能测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小组成员使用共同编辑同一文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成文件分享</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持3个文档同时编辑，5人协作编辑同一个文档，系统的响应时间不超过3秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正常管理团队成员权限</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在团队管理界面找到想要管理的成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xiaogang
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击修改权限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改成员权限</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-012</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-014</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-015</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-016</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-018</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-020</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-021</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-022</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-023</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>断网重连</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发编辑中</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并发编辑中断网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排除故障并重连</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络无法连接至服务器时提醒，并在网络恢复时重新同步</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器兼容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3823,6 +4033,12 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3951,6 +4167,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3959,15 +4178,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4395,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,80 +4623,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="57" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="56">
+      <c r="B5" s="58">
         <v>12</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="30.5" x14ac:dyDescent="0.25">
@@ -4494,8 +4704,8 @@
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="3" t="s">
         <v>205</v>
       </c>
@@ -4509,8 +4719,8 @@
       <c r="B8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="3" t="s">
         <v>205</v>
       </c>
@@ -4524,8 +4734,8 @@
       <c r="B9" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="3" t="s">
         <v>205</v>
       </c>
@@ -4536,22 +4746,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="8" t="s">
         <v>164</v>
       </c>
@@ -4566,17 +4776,17 @@
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="79">
+      <c r="B12" s="81">
         <v>44729</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="30" t="s">
         <v>165</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="48" t="s">
         <v>263</v>
       </c>
       <c r="G12" s="13"/>
@@ -4584,8 +4794,8 @@
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -4593,8 +4803,8 @@
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -4602,8 +4812,8 @@
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -4611,8 +4821,8 @@
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -4620,8 +4830,8 @@
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -4629,21 +4839,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="27" t="s">
         <v>210</v>
       </c>
@@ -4659,21 +4869,21 @@
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="10">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B20)*('Test Cases'!K:K="Y"))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ref="F20:F29" si="0">IF(D20,E20/D20,0)</f>
-        <v>0.9285714285714286</v>
+        <v>0.9375</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="11"/>
@@ -4681,21 +4891,21 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="10">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B21)*('Test Cases'!K:K="Y"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="29">
         <f>IF(D21,E21/D21,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="11"/>
@@ -4703,10 +4913,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="10">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>0</v>
@@ -4725,10 +4935,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="10">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>0</v>
@@ -4747,10 +4957,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="10">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -4769,21 +4979,21 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="10">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B25)*('Test Cases'!K:K="Y"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="29">
         <f>IF(D25,E25/D25,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="11"/>
@@ -4791,17 +5001,17 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="10">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B26)*('Test Cases'!K:K="Y"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" si="0"/>
@@ -4813,10 +5023,10 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="10">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
         <v>0</v>
@@ -4833,10 +5043,10 @@
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="10">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>0</v>
@@ -4853,21 +5063,21 @@
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="10">
         <f>SUM(D20:D28)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E29" s="10">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="G29" s="13"/>
     </row>
@@ -4980,10 +5190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AP900"/>
+  <dimension ref="A1:AP901"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5009,54 +5219,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
     </row>
     <row r="4" spans="1:42" ht="46" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -5284,7 +5494,7 @@
         <v>314</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>288</v>
@@ -5366,16 +5576,16 @@
         <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="I11" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>257</v>
@@ -5394,16 +5604,16 @@
         <v>294</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>308</v>
@@ -5427,34 +5637,34 @@
       <c r="M12" s="34"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:42" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" ht="72" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>298</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>257</v>
@@ -5470,7 +5680,7 @@
         <v>305</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>188</v>
@@ -5482,14 +5692,14 @@
         <v>296</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J14" s="45" t="s">
         <v>302</v>
@@ -5503,36 +5713,34 @@
       <c r="M14" s="34"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:42" ht="58.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>315</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>228</v>
+        <v>306</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>321</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>257</v>
@@ -5543,36 +5751,36 @@
       <c r="M15" s="34"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:42" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>188</v>
+      <c r="C16" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>254</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>257</v>
@@ -5583,36 +5791,36 @@
       <c r="M16" s="34"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="73" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>257</v>
@@ -5623,18 +5831,18 @@
       <c r="M17" s="34"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="58.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="73" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>296</v>
@@ -5643,16 +5851,16 @@
         <v>314</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="I18" s="45" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>257</v>
@@ -5663,34 +5871,36 @@
       <c r="M18" s="34"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="85" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A19" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>337</v>
+        <v>369</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>330</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="H19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>341</v>
+        <v>331</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>257</v>
@@ -5701,34 +5911,34 @@
       <c r="M19" s="34"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="71" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="85" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>257</v>
@@ -5739,34 +5949,34 @@
       <c r="M20" s="34"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="71" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>257</v>
@@ -5779,32 +5989,32 @@
     </row>
     <row r="22" spans="1:14" ht="43" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>257</v>
@@ -5815,34 +6025,34 @@
       <c r="M22" s="34"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="43" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>257</v>
@@ -5853,34 +6063,34 @@
       <c r="M23" s="34"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="57" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>257</v>
@@ -5891,51 +6101,117 @@
       <c r="M24" s="34"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="46"/>
+    <row r="25" spans="1:14" ht="57" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>353</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="M25" s="34"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="46"/>
+    <row r="26" spans="1:14" ht="71" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>360</v>
+      </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="M26" s="34"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="46"/>
+    <row r="27" spans="1:14" ht="57" x14ac:dyDescent="0.35">
+      <c r="A27" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>379</v>
+      </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="M27" s="34"/>
       <c r="N27" s="7"/>
     </row>
@@ -6027,7 +6303,7 @@
       <c r="E33" s="38"/>
       <c r="F33" s="46"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="46"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="46"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -6059,7 +6335,7 @@
       <c r="E35" s="38"/>
       <c r="F35" s="46"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="45"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="46"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -6073,7 +6349,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="46"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="45"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="7"/>
       <c r="H36" s="45"/>
       <c r="I36" s="46"/>
@@ -6087,12 +6363,12 @@
       <c r="A37" s="7"/>
       <c r="B37" s="46"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="38"/>
       <c r="F37" s="45"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6103,9 +6379,9 @@
       <c r="A38" s="7"/>
       <c r="B38" s="46"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="46"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="38"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="7"/>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -6119,12 +6395,12 @@
       <c r="A39" s="7"/>
       <c r="B39" s="46"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="44"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="38"/>
       <c r="F39" s="46"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="46"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -6167,7 +6443,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="46"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="46"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="38"/>
       <c r="F42" s="46"/>
       <c r="G42" s="7"/>
@@ -6197,14 +6473,14 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="38"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -6420,14 +6696,25 @@
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="38"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C59" s="7"/>
       <c r="E59" s="38"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
@@ -10287,6 +10574,7 @@
     </row>
     <row r="831" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C831" s="7"/>
+      <c r="E831" s="38"/>
       <c r="L831" s="7"/>
     </row>
     <row r="832" spans="3:12" x14ac:dyDescent="0.35">
@@ -10471,6 +10759,7 @@
     </row>
     <row r="877" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C877" s="7"/>
+      <c r="L877" s="7"/>
     </row>
     <row r="878" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C878" s="7"/>
@@ -10540,6 +10829,9 @@
     </row>
     <row r="900" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C900" s="7"/>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C901" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10550,16 +10842,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$X$5:$X$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K65532" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K65533" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C65532" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C65533" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"功能测试,性能测试,易用性测试,可靠性测试,安全性测试,兼容性测试,界面测试,压力测试,部署测试"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E830" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E831" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L876" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L877" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Null(无缺陷),Urgent(严重错误),High(主要错误),Medium(一般错误),Low(微小错误)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10574,7 +10866,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:B77"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10591,10 +10883,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="95"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -10631,19 +10923,19 @@
       <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="86"/>
+      <c r="B10" s="88"/>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="91"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="91" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10651,85 +10943,85 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="89"/>
+      <c r="B25" s="91"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="91" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -10737,87 +11029,87 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="89"/>
+      <c r="B35" s="91"/>
     </row>
     <row r="36" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="94" t="s">
+      <c r="A37" s="86"/>
+      <c r="B37" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
-      <c r="B38" s="94" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="91"/>
     </row>
     <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="91" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -10825,28 +11117,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="89"/>
+      <c r="B44" s="91"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -10857,13 +11149,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="89"/>
+      <c r="B46" s="91"/>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="91" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -10871,37 +11163,37 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="89"/>
+      <c r="B52" s="91"/>
     </row>
     <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="85" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -10909,37 +11201,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="89"/>
+      <c r="B58" s="91"/>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="85" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -10947,25 +11239,25 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="89"/>
+      <c r="B62" s="91"/>
     </row>
     <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89" t="s">
+      <c r="A63" s="91" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -10973,69 +11265,69 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="89"/>
+      <c r="B67" s="91"/>
     </row>
     <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="49" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
+      <c r="A69" s="91"/>
       <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
-      <c r="B72" s="94" t="s">
+      <c r="A72" s="91"/>
+      <c r="B72" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="89"/>
+      <c r="B73" s="91"/>
     </row>
     <row r="74" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="91" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -11043,16 +11335,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
+      <c r="A75" s="91"/>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="86"/>
+      <c r="B77" s="88"/>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -11107,21 +11399,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="86" t="s">
+      <c r="A87" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="88"/>
     </row>
     <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="88"/>
-      <c r="C88" s="91"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="94"/>
     </row>
     <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="85" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -11132,7 +11424,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
+      <c r="A90" s="86"/>
       <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
@@ -11141,7 +11433,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
@@ -11150,7 +11442,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -11159,7 +11451,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -11168,7 +11460,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
@@ -11177,7 +11469,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
+      <c r="A95" s="87"/>
       <c r="B95" s="2" t="s">
         <v>72</v>
       </c>
@@ -11186,14 +11478,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="91"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="94"/>
     </row>
     <row r="97" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="85" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -11204,7 +11496,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
@@ -11213,7 +11505,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="85"/>
+      <c r="A99" s="87"/>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
@@ -11222,50 +11514,50 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="86"/>
-      <c r="C101" s="86"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="88"/>
     </row>
     <row r="102" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="89" t="s">
+      <c r="A102" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="89"/>
-      <c r="C102" s="89"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="91"/>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="94" t="s">
+      <c r="B103" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="94" t="s">
+      <c r="C103" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="87"/>
-      <c r="B104" s="94" t="s">
+      <c r="A104" s="89"/>
+      <c r="B104" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="94" t="s">
+      <c r="C104" s="49" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="87"/>
-      <c r="B105" s="94" t="s">
+      <c r="A105" s="89"/>
+      <c r="B105" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="94" t="s">
+      <c r="C105" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="87"/>
+      <c r="A106" s="89"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -11274,7 +11566,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="87"/>
+      <c r="A107" s="89"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -11283,7 +11575,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="87"/>
+      <c r="A108" s="89"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -11292,14 +11584,14 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="89" t="s">
+      <c r="A109" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="89"/>
-      <c r="C109" s="89"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="91"/>
     </row>
     <row r="110" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="83" t="s">
+      <c r="A110" s="85" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11310,7 +11602,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -11319,25 +11611,25 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="88" t="s">
+      <c r="A112" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="B112" s="88"/>
-      <c r="C112" s="88"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
     </row>
     <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B113" s="94" t="s">
+      <c r="B113" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C113" s="94" t="s">
+      <c r="C113" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="89"/>
+      <c r="A114" s="91"/>
       <c r="B114" s="2" t="s">
         <v>77</v>
       </c>
@@ -11346,7 +11638,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="89"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="2" t="s">
         <v>78</v>
       </c>
@@ -11355,7 +11647,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="89"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="2" t="s">
         <v>79</v>
       </c>
@@ -11364,25 +11656,25 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="95" t="s">
+      <c r="A117" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="89"/>
-      <c r="C117" s="89"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
     </row>
     <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="83" t="s">
+      <c r="A118" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="94" t="s">
+      <c r="B118" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C118" s="94" t="s">
+      <c r="C118" s="49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="85"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
@@ -11391,14 +11683,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="89" t="s">
+      <c r="A120" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="B120" s="89"/>
-      <c r="C120" s="89"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="91"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="83" t="s">
+      <c r="A121" s="85" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -11409,7 +11701,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="84"/>
+      <c r="A122" s="86"/>
       <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
@@ -11418,7 +11710,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="84"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
@@ -11427,7 +11719,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="84"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
@@ -11436,7 +11728,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="84"/>
+      <c r="A125" s="86"/>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
@@ -11445,7 +11737,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="84"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="2" t="s">
         <v>137</v>
       </c>
@@ -11454,16 +11746,16 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="84"/>
-      <c r="B127" s="94" t="s">
+      <c r="A127" s="86"/>
+      <c r="B127" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C127" s="94" t="s">
+      <c r="C127" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="84"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="2" t="s">
         <v>139</v>
       </c>
@@ -11472,7 +11764,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="84"/>
+      <c r="A129" s="86"/>
       <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
@@ -11481,7 +11773,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="84"/>
+      <c r="A130" s="86"/>
       <c r="B130" s="2" t="s">
         <v>141</v>
       </c>
@@ -11490,7 +11782,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="85"/>
+      <c r="A131" s="87"/>
       <c r="B131" s="2" t="s">
         <v>142</v>
       </c>
@@ -11499,21 +11791,21 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="86" t="s">
+      <c r="A133" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="B133" s="86"/>
-      <c r="C133" s="86"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="88"/>
     </row>
     <row r="134" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="89" t="s">
+      <c r="A134" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="B134" s="89"/>
-      <c r="C134" s="89"/>
+      <c r="B134" s="91"/>
+      <c r="C134" s="91"/>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="87" t="s">
+      <c r="A135" s="89" t="s">
         <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -11524,7 +11816,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="87"/>
+      <c r="A136" s="89"/>
       <c r="B136" s="2" t="s">
         <v>175</v>
       </c>
@@ -11533,14 +11825,14 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="89" t="s">
+      <c r="A137" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="89"/>
-      <c r="C137" s="89"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="91"/>
     </row>
     <row r="138" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="87" t="s">
+      <c r="A138" s="89" t="s">
         <v>177</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -11551,7 +11843,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="87"/>
+      <c r="A139" s="89"/>
       <c r="B139" s="2" t="s">
         <v>182</v>
       </c>
@@ -11560,14 +11852,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="88" t="s">
+      <c r="A140" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="B140" s="88"/>
-      <c r="C140" s="88"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="90"/>
     </row>
     <row r="141" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="87" t="s">
+      <c r="A141" s="89" t="s">
         <v>179</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -11578,7 +11870,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="87"/>
+      <c r="A142" s="89"/>
       <c r="B142" s="2" t="s">
         <v>175</v>
       </c>

--- a/document/系统测试用例.xlsx
+++ b/document/系统测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WeiCheng Xin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2776748C-9112-4258-A8E4-BFEC0D60FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F21E8-A8BF-4993-B220-91BD98D379BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="403">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2576,7 +2576,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>输入文字</t>
+      <t>在第一行第一列单元格中输入文字</t>
     </r>
     <r>
       <rPr>
@@ -2594,6 +2594,952 @@
         <charset val="134"/>
       </rPr>
       <t>后保存</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正常按照模板生成文档</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击创建文档按钮并选择文档类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入文档名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"doc2"
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择参考模板，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击创建按钮</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试使用非法数据是否成功</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击创建文档按钮并选择文档类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入文档名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"doc2"
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击创建按钮</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档名重复</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体风格一致性验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常在浏览器中访问各个页面</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在浏览器中访问各个页面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的界面风格统一，内容显示正确、美观、友好，无乱、错页、变形、错别字等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗体一致性验证</t>
+  </si>
+  <si>
+    <t>每个页面窗体显示一致，无混乱或显示不完全、不统一的页面出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮一致性验证</t>
+  </si>
+  <si>
+    <t>按钮图片大小风格一致，点击按钮有效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字使用验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字使用恰当，无歧义，无错别字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同浏览器上功能运行正常，界面显示正常，风格一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IE5.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IE6.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IE6.0+SP1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FirFox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等常用浏览器上浏览器中访问各个页面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器兼容性验证</t>
+  </si>
+  <si>
+    <t>风险操作提示验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常在浏览器中访问各个页面，能执行各项功能测试</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行有风险的操作时，有“确认”、“放弃”等提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>testcase-008
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>testcase-010</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小组成员使用共同编辑同一文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成文件分享</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持3个文档同时编辑，5人协作编辑同一个文档，系统的响应时间不超过3秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正常管理团队成员权限</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在团队管理界面找到想要管理的成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>xiaogang
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击修改权限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改成员权限</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-012</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-014</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-015</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-016</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-018</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-020</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-021</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-022</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-023</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>断网重连</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发编辑中</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并发编辑中断网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排除故障并重连</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络无法连接至服务器时提醒，并在网络恢复时重新同步</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器兼容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用虚拟机在并发编辑中手动断网，并重连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击创建文档按钮并选择文档类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入文档名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"sheet1"
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击创建按钮</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出表格</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正常导出表格</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成表格编辑</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认要导出的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sheet1
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击确认导出文件</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试并发编辑性能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试断网时是否有提示、重连时是否同步</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-024</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -2626,7 +3572,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>在第一行第一列单元格中输入文字</t>
+      <t>输入文字</t>
     </r>
     <r>
       <rPr>
@@ -2643,17 +3589,34 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>后保存</t>
+      <t>后保存
+3.退出文档编辑重进</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>测试能否正常按照模板生成文档</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-025</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>doc2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>图片编辑</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2666,740 +3629,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>点击创建文档按钮并选择文档类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入文档名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"doc2"
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择参考模板，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击创建按钮</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试使用非法数据是否成功</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击创建文档按钮并选择文档类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入文档名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"doc2"
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击创建按钮</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文档名重复</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体风格一致性验证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常在浏览器中访问各个页面</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在浏览器中访问各个页面</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的界面风格统一，内容显示正确、美观、友好，无乱、错页、变形、错别字等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗体一致性验证</t>
-  </si>
-  <si>
-    <t>每个页面窗体显示一致，无混乱或显示不完全、不统一的页面出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮一致性验证</t>
-  </si>
-  <si>
-    <t>按钮图片大小风格一致，点击按钮有效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字使用验证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字使用恰当，无歧义，无错别字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在不同浏览器上功能运行正常，界面显示正常，风格一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IE5.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IE6.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IE6.0+SP1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>FirFox</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等常用浏览器上浏览器中访问各个页面</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器兼容性验证</t>
-  </si>
-  <si>
-    <t>风险操作提示验证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常在浏览器中访问各个页面，能执行各项功能测试</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行有风险的操作时，有“确认”、“放弃”等提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>testcase-008
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>testcase-010</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发编辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发编辑性能测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小组成员使用共同编辑同一文档</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成文件分享</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持3个文档同时编辑，5人协作编辑同一个文档，系统的响应时间不超过3秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试能否正常管理团队成员权限</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在团队管理界面找到想要管理的成员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>xiaogang
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击修改权限为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功修改成员权限</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-012</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-013</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-014</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-015</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-016</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-017</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-018</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-019</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-020</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-021</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-022</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水源文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-testcase-023</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>断网重连</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发编辑中</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并发编辑中断网</t>
+      <t>点击插入图片后选择要插入的图片</t>
     </r>
     <r>
       <rPr>
@@ -3417,17 +3647,86 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>排除故障并重连</t>
+      <t>插入图片后对图片圆角属性进行修改</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>网络无法连接至服务器时提醒，并在网络恢复时重新同步</t>
+    <t>成功插入图片、成功修改图片属性</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>浏览器兼容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-026</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正常进行图片插入、编辑</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正常退出登录</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册登录</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击账户进入账户界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击确认退出登录</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功退出登录</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4039,6 +4338,63 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4078,63 +4434,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4146,6 +4445,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4155,29 +4463,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4605,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,80 +4922,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="59" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="60" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="61"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="58">
+      <c r="B5" s="77">
         <v>12</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="30.5" x14ac:dyDescent="0.25">
@@ -4704,8 +5003,10 @@
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="68"/>
       <c r="E7" s="3" t="s">
         <v>205</v>
       </c>
@@ -4719,8 +5020,8 @@
       <c r="B8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="3" t="s">
         <v>205</v>
       </c>
@@ -4734,8 +5035,8 @@
       <c r="B9" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="3" t="s">
         <v>205</v>
       </c>
@@ -4746,22 +5047,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="8" t="s">
         <v>164</v>
       </c>
@@ -4776,10 +5077,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="81">
+      <c r="B12" s="60">
         <v>44729</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="30" t="s">
         <v>165</v>
       </c>
@@ -4794,8 +5095,8 @@
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -4803,8 +5104,8 @@
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -4812,8 +5113,8 @@
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -4821,8 +5122,8 @@
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -4830,8 +5131,8 @@
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -4839,21 +5140,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="27" t="s">
         <v>210</v>
       </c>
@@ -4869,21 +5170,21 @@
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="66"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="10">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B20)*('Test Cases'!K:K="Y"))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ref="F20:F29" si="0">IF(D20,E20/D20,0)</f>
-        <v>0.9375</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="11"/>
@@ -4891,10 +5192,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="10">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
         <v>1</v>
@@ -4913,10 +5214,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>0</v>
@@ -4935,10 +5236,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="10">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>0</v>
@@ -4957,10 +5258,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="10">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -4979,10 +5280,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="10">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>1</v>
@@ -5001,10 +5302,10 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="C26" s="71"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="10">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
         <v>5</v>
@@ -5023,10 +5324,10 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="71"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="10">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
         <v>0</v>
@@ -5043,10 +5344,10 @@
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="10">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>0</v>
@@ -5063,21 +5364,21 @@
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="10">
         <f>SUM(D20:D28)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="10">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" si="0"/>
-        <v>0.95652173913043481</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="G29" s="13"/>
     </row>
@@ -5142,6 +5443,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B29:C29"/>
@@ -5158,23 +5476,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5192,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP901"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5556,7 +5857,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
         <v>293</v>
       </c>
@@ -5579,7 +5880,7 @@
         <v>324</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="I11" s="45" t="s">
         <v>318</v>
@@ -5604,13 +5905,13 @@
         <v>294</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>254</v>
@@ -5658,13 +5959,13 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>257</v>
@@ -5753,7 +6054,7 @@
     </row>
     <row r="16" spans="1:42" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>316</v>
@@ -5774,7 +6075,7 @@
         <v>320</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="I16" s="45" t="s">
         <v>282</v>
@@ -5793,7 +6094,7 @@
     </row>
     <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>322</v>
@@ -5814,7 +6115,7 @@
         <v>324</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I17" s="45" t="s">
         <v>317</v>
@@ -5833,7 +6134,7 @@
     </row>
     <row r="18" spans="1:14" ht="73" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>323</v>
@@ -5842,7 +6143,7 @@
         <v>188</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>296</v>
@@ -5851,10 +6152,10 @@
         <v>314</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="I18" s="45" t="s">
         <v>317</v>
@@ -5873,7 +6174,7 @@
     </row>
     <row r="19" spans="1:14" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A19" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>271</v>
@@ -5882,7 +6183,7 @@
         <v>188</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>296</v>
@@ -5891,16 +6192,16 @@
         <v>314</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I19" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>332</v>
-      </c>
       <c r="J19" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>257</v>
@@ -5913,32 +6214,32 @@
     </row>
     <row r="20" spans="1:14" ht="85" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>335</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>337</v>
-      </c>
       <c r="J20" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>257</v>
@@ -5951,32 +6252,32 @@
     </row>
     <row r="21" spans="1:14" ht="71" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E21" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>335</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>257</v>
@@ -5989,32 +6290,32 @@
     </row>
     <row r="22" spans="1:14" ht="43" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>335</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>257</v>
@@ -6027,32 +6328,32 @@
     </row>
     <row r="23" spans="1:14" ht="43" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E23" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>335</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>257</v>
@@ -6065,32 +6366,32 @@
     </row>
     <row r="24" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>244</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E24" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>335</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>257</v>
@@ -6103,32 +6404,32 @@
     </row>
     <row r="25" spans="1:14" ht="57" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>257</v>
@@ -6141,32 +6442,32 @@
     </row>
     <row r="26" spans="1:14" ht="71" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>240</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="E26" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>358</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>360</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I26" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="I26" s="46" t="s">
-        <v>361</v>
-      </c>
       <c r="J26" s="46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>257</v>
@@ -6179,32 +6480,34 @@
     </row>
     <row r="27" spans="1:14" ht="57" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>254</v>
       </c>
       <c r="F27" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I27" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="I27" s="45" t="s">
-        <v>381</v>
-      </c>
       <c r="J27" s="45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>257</v>
@@ -6215,51 +6518,117 @@
       <c r="M27" s="34"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="46"/>
+    <row r="28" spans="1:14" ht="58.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>321</v>
+      </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="M28" s="34"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="46"/>
+    <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>385</v>
+      </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="M29" s="34"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="46"/>
+    <row r="30" spans="1:14" ht="44" x14ac:dyDescent="0.35">
+      <c r="A30" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>400</v>
+      </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="M30" s="34"/>
       <c r="N30" s="7"/>
     </row>
@@ -10865,8 +11234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10883,10 +11252,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="87"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -10923,19 +11292,19 @@
       <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="88"/>
+      <c r="B10" s="86"/>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="85"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="85" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10943,85 +11312,85 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="91"/>
+      <c r="B25" s="85"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="85" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -11029,61 +11398,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="91"/>
+      <c r="B35" s="85"/>
     </row>
     <row r="36" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="88" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="49" t="s">
@@ -11091,25 +11460,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="91"/>
+      <c r="B39" s="85"/>
     </row>
     <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="85" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -11117,28 +11486,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="85"/>
+      <c r="B42" s="49" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="85"/>
+      <c r="B43" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="85"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -11149,13 +11518,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="91"/>
+      <c r="B46" s="85"/>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="85" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -11163,37 +11532,37 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="85"/>
+      <c r="B48" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="91"/>
+      <c r="B52" s="85"/>
     </row>
     <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="88" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -11201,37 +11570,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="87"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="91"/>
+      <c r="B58" s="85"/>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="88" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -11239,25 +11608,25 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="87"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="91"/>
+      <c r="B62" s="85"/>
     </row>
     <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="85" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -11265,31 +11634,31 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91" t="s">
+      <c r="A67" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="91"/>
+      <c r="B67" s="85"/>
     </row>
     <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="85" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="49" t="s">
@@ -11297,37 +11666,37 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="91"/>
+      <c r="B73" s="85"/>
     </row>
     <row r="74" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="85" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -11335,16 +11704,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="88"/>
+      <c r="B77" s="86"/>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -11399,21 +11768,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="88" t="s">
+      <c r="A87" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="88"/>
-      <c r="C87" s="88"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="86"/>
     </row>
     <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="90"/>
-      <c r="C88" s="94"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="95"/>
     </row>
     <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -11424,7 +11793,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
+      <c r="A90" s="89"/>
       <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
@@ -11433,7 +11802,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
+      <c r="A91" s="89"/>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
@@ -11442,7 +11811,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
+      <c r="A92" s="89"/>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -11451,7 +11820,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
+      <c r="A93" s="89"/>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -11460,7 +11829,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
+      <c r="A94" s="89"/>
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
@@ -11469,7 +11838,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="87"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="2" t="s">
         <v>72</v>
       </c>
@@ -11478,14 +11847,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="93" t="s">
+      <c r="A96" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="94"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="95"/>
     </row>
     <row r="97" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="85" t="s">
+      <c r="A97" s="88" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -11496,7 +11865,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="86"/>
+      <c r="A98" s="89"/>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
@@ -11505,7 +11874,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="87"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
@@ -11514,21 +11883,21 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="88" t="s">
+      <c r="A101" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="88"/>
-      <c r="C101" s="88"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
     </row>
     <row r="102" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="91" t="s">
+      <c r="A102" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="91"/>
-      <c r="C102" s="91"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="93" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="49" t="s">
@@ -11539,7 +11908,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="89"/>
+      <c r="A104" s="93"/>
       <c r="B104" s="49" t="s">
         <v>115</v>
       </c>
@@ -11548,7 +11917,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="89"/>
+      <c r="A105" s="93"/>
       <c r="B105" s="49" t="s">
         <v>116</v>
       </c>
@@ -11557,7 +11926,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="89"/>
+      <c r="A106" s="93"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -11566,7 +11935,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="89"/>
+      <c r="A107" s="93"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -11575,7 +11944,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="89"/>
+      <c r="A108" s="93"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -11584,14 +11953,14 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="91" t="s">
+      <c r="A109" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="91"/>
-      <c r="C109" s="91"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
     </row>
     <row r="110" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="85" t="s">
+      <c r="A110" s="88" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11602,7 +11971,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="87"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -11611,14 +11980,14 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90" t="s">
+      <c r="A112" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="91"/>
     </row>
     <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="91" t="s">
+      <c r="A113" s="85" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="49" t="s">
@@ -11629,7 +11998,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="91"/>
+      <c r="A114" s="85"/>
       <c r="B114" s="2" t="s">
         <v>77</v>
       </c>
@@ -11638,7 +12007,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="91"/>
+      <c r="A115" s="85"/>
       <c r="B115" s="2" t="s">
         <v>78</v>
       </c>
@@ -11647,7 +12016,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="91"/>
+      <c r="A116" s="85"/>
       <c r="B116" s="2" t="s">
         <v>79</v>
       </c>
@@ -11659,11 +12028,11 @@
       <c r="A117" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
     </row>
     <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="85" t="s">
+      <c r="A118" s="88" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="49" t="s">
@@ -11674,7 +12043,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="87"/>
+      <c r="A119" s="90"/>
       <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
@@ -11683,14 +12052,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="91" t="s">
+      <c r="A120" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="B120" s="91"/>
-      <c r="C120" s="91"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="88" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -11701,7 +12070,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
+      <c r="A122" s="89"/>
       <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
@@ -11710,7 +12079,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="86"/>
+      <c r="A123" s="89"/>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
@@ -11719,7 +12088,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
+      <c r="A124" s="89"/>
       <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
@@ -11728,7 +12097,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
+      <c r="A125" s="89"/>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
@@ -11737,7 +12106,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
+      <c r="A126" s="89"/>
       <c r="B126" s="2" t="s">
         <v>137</v>
       </c>
@@ -11746,7 +12115,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="86"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="49" t="s">
         <v>138</v>
       </c>
@@ -11755,7 +12124,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="86"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="2" t="s">
         <v>139</v>
       </c>
@@ -11764,7 +12133,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="86"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
@@ -11773,7 +12142,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="86"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="2" t="s">
         <v>141</v>
       </c>
@@ -11782,7 +12151,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="87"/>
+      <c r="A131" s="90"/>
       <c r="B131" s="2" t="s">
         <v>142</v>
       </c>
@@ -11791,21 +12160,21 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="88" t="s">
+      <c r="A133" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B133" s="88"/>
-      <c r="C133" s="88"/>
+      <c r="B133" s="86"/>
+      <c r="C133" s="86"/>
     </row>
     <row r="134" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="91" t="s">
+      <c r="A134" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="B134" s="91"/>
-      <c r="C134" s="91"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="85"/>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="89" t="s">
+      <c r="A135" s="93" t="s">
         <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -11816,7 +12185,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="89"/>
+      <c r="A136" s="93"/>
       <c r="B136" s="2" t="s">
         <v>175</v>
       </c>
@@ -11825,14 +12194,14 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="91" t="s">
+      <c r="A137" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="91"/>
-      <c r="C137" s="91"/>
+      <c r="B137" s="85"/>
+      <c r="C137" s="85"/>
     </row>
     <row r="138" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="89" t="s">
+      <c r="A138" s="93" t="s">
         <v>177</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -11843,7 +12212,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="89"/>
+      <c r="A139" s="93"/>
       <c r="B139" s="2" t="s">
         <v>182</v>
       </c>
@@ -11852,14 +12221,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="90" t="s">
+      <c r="A140" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="B140" s="90"/>
-      <c r="C140" s="90"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="91"/>
     </row>
     <row r="141" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="89" t="s">
+      <c r="A141" s="93" t="s">
         <v>179</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -11870,7 +12239,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="89"/>
+      <c r="A142" s="93"/>
       <c r="B142" s="2" t="s">
         <v>175</v>
       </c>
@@ -11880,6 +12249,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A77:B77"/>
@@ -11896,37 +12296,6 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:A131"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/document/系统测试用例.xlsx
+++ b/document/系统测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WeiCheng Xin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F21E8-A8BF-4993-B220-91BD98D379BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4A49CA-6064-4E94-8901-6D986FBFE776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="409">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1427,78 +1427,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF0066FF"/>
-        <rFont val="华文细黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="华文细黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> System Test Case Form
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="48"/>
-        <rFont val="华文细黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="华文细黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统测试用例</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>yyyy-mm-dd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户注册</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试注册正常数据是否成功</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>可以正常在浏览器中访问首页</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>用户注册成功</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Null(无缺陷)</t>
   </si>
   <si>
     <t>测试注册非法数据是否成功</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1616,7 +1577,7 @@
       </rPr>
       <t>点击注册按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Low(微小错误)</t>
@@ -1647,7 +1608,7 @@
       </rPr>
       <t>-testcase-001</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1670,7 +1631,7 @@
       </rPr>
       <t>次密码不一致</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1717,7 +1678,7 @@
       </rPr>
       <t>次密码不一致，没有邮箱格式错误提示</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1745,11 +1706,11 @@
   </si>
   <si>
     <t>创建文档</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常创建文档</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1773,7 +1734,7 @@
   </si>
   <si>
     <t>用户登录</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1866,7 +1827,7 @@
       </rPr>
       <t>点击注册按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1950,7 +1911,7 @@
       </rPr>
       <t>点击注册按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1973,7 +1934,7 @@
       </rPr>
       <t>次密码不一致，提示邮箱格式错误</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>可以正常在浏览器中访问首页，已经完成注册</t>
@@ -2027,11 +1988,11 @@
       </rPr>
       <t>点击注册按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>登录成功，进入文档管理界面</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2051,11 +2012,11 @@
       </rPr>
       <t>-testcase-005</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档创建成功</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2075,23 +2036,23 @@
       </rPr>
       <t>-testcase-006</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常分享、加入文档团队</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成功生成邀请码，成功加入团队</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档编辑</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常进行文档编辑、保存</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2159,7 +2120,7 @@
       </rPr>
       <t>点击创建按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>xiaoming
@@ -2177,7 +2138,7 @@
   </si>
   <si>
     <t>团队管理</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>8888888T</t>
@@ -2201,7 +2162,7 @@
       </rPr>
       <t>-testcase-007</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2221,19 +2182,19 @@
       </rPr>
       <t>-testcase-008</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常管理团队成员</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成功删除成员</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2253,19 +2214,19 @@
       </rPr>
       <t>-testcase-009</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>导出文档</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常导出文档</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>完成文档编辑</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2288,7 +2249,7 @@
       </rPr>
       <t>文件</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>xiaoming
@@ -2320,19 +2281,19 @@
       </rPr>
       <t>-testcase-010</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>删除文档</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档分享</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>完成文档分享</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2365,7 +2326,7 @@
       </rPr>
       <t>点击删除</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2398,7 +2359,7 @@
       </rPr>
       <t>点击导出文件</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2448,7 +2409,7 @@
       </rPr>
       <t>输入该邀请码加入文件团队</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2481,15 +2442,15 @@
       </rPr>
       <t>点击删除</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>完成文档创建</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>完成用户登录</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2509,19 +2470,19 @@
       </rPr>
       <t>-testcase-011</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>创建表格</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成功修改表格并保存</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成功修改文档并保存</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>doc1</t>
@@ -2533,15 +2494,15 @@
   </si>
   <si>
     <t>完成表格创建</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>表格编辑</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>按照模板生成文档</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>a,b23.c!</t>
@@ -2595,11 +2556,11 @@
       </rPr>
       <t>后保存</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常按照模板生成文档</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>doc2</t>
@@ -2680,11 +2641,11 @@
       </rPr>
       <t>点击创建按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试使用非法数据是否成功</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2752,7 +2713,7 @@
       </rPr>
       <t>点击创建按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2767,7 +2728,7 @@
       </rPr>
       <t>文档名重复</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>整体风格一致性验证</t>
@@ -2779,7 +2740,7 @@
   </si>
   <si>
     <t>可以正常在浏览器中访问各个页面</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2938,7 +2899,7 @@
   </si>
   <si>
     <t>可以正常在浏览器中访问各个页面，能执行各项功能测试</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>执行有风险的操作时，有“确认”、“放弃”等提示</t>
@@ -3010,7 +2971,7 @@
   </si>
   <si>
     <t>完成文件分享</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>支持3个文档同时编辑，5人协作编辑同一个文档，系统的响应时间不超过3秒。</t>
@@ -3018,11 +2979,11 @@
   </si>
   <si>
     <t>权限管理</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常管理团队成员权限</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3080,11 +3041,11 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成功修改成员权限</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3324,15 +3285,15 @@
       </rPr>
       <t>-testcase-023</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>断网重连</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>并发编辑中</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3365,11 +3326,11 @@
       </rPr>
       <t>排除故障并重连</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>网络无法连接至服务器时提醒，并在网络恢复时重新同步</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>浏览器兼容</t>
@@ -3445,19 +3406,19 @@
       </rPr>
       <t>点击创建按钮</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>导出表格</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常导出表格</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>完成表格编辑</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3490,7 +3451,7 @@
       </rPr>
       <t>点击确认导出文件</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3513,7 +3474,7 @@
       </rPr>
       <t>文件</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试并发编辑性能</t>
@@ -3521,7 +3482,7 @@
   </si>
   <si>
     <t>测试断网时是否有提示、重连时是否同步</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3541,7 +3502,7 @@
       </rPr>
       <t>-testcase-024</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3592,7 +3553,7 @@
       <t>后保存
 3.退出文档编辑重进</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3612,11 +3573,11 @@
       </rPr>
       <t>-testcase-025</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>图片编辑</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3649,11 +3610,11 @@
       </rPr>
       <t>插入图片后对图片圆角属性进行修改</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成功插入图片、成功修改图片属性</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3673,23 +3634,23 @@
       </rPr>
       <t>-testcase-026</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常进行图片插入、编辑</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>退出登录</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正常退出登录</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>完成注册登录</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3722,11 +3683,87 @@
       </rPr>
       <t>点击确认退出登录</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成功退出登录</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyDoc System Test Case Form
+水源文档系统测试用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水源文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-testcase-027</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试多人并发编辑的延迟</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地端(Apple M1 Pro 10核16GB):3个文档同时编辑，每个文档为5人协作编辑——延迟25ms。
+10个文档同时编辑，每个文档为10人协作编辑——延迟66ms。
+云端(阿里云ECS服务器2核4GB 3Mbps):3个文档同时编辑，每个文档为5人协作编辑——延迟99ms。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟时间短</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编写脚本模仿正常的使用方式给后台发送请求，发送的是字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"test"
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在本机上和云服务平台上分别测试</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3736,7 +3773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3767,11 +3804,6 @@
       <color indexed="48"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3875,13 +3907,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color indexed="48"/>
-      <name val="华文细黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="1"/>
@@ -3902,13 +3927,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF0066FF"/>
-      <name val="华文细黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -3934,6 +3952,12 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="华文细黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -4180,7 +4204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4198,7 +4222,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4207,7 +4231,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4230,7 +4254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4297,30 +4321,26 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4328,14 +4348,18 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4371,16 +4395,16 @@
     <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4389,13 +4413,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4407,7 +4431,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4431,14 +4455,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4451,7 +4475,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4466,7 +4490,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4904,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,7 +4971,7 @@
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="75"/>
@@ -4990,7 +5014,7 @@
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="63" t="s">
-        <v>250</v>
+        <v>402</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
@@ -5004,7 +5028,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="3" t="s">
@@ -5026,7 +5050,7 @@
         <v>205</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="13"/>
     </row>
@@ -5041,7 +5065,7 @@
         <v>205</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -5088,7 +5112,7 @@
         <v>248</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5198,11 +5222,11 @@
       <c r="C21" s="51"/>
       <c r="D21" s="10">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B21)*('Test Cases'!K:K="Y"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="29">
         <f>IF(D21,E21/D21,0)</f>
@@ -5263,7 +5287,6 @@
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="10">
-        <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
       </c>
       <c r="E24" s="10">
@@ -5370,15 +5393,15 @@
       <c r="C29" s="54"/>
       <c r="D29" s="10">
         <f>SUM(D20:D28)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" s="10">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" si="0"/>
-        <v>0.96153846153846156</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="G29" s="13"/>
     </row>
@@ -5493,8 +5516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP901"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5613,40 +5636,40 @@
     </row>
     <row r="5" spans="1:42" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="J5" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="J5" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M5" s="34" t="s">
         <v>160</v>
@@ -5655,40 +5678,40 @@
     </row>
     <row r="6" spans="1:42" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>237</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M6" s="34" t="s">
         <v>161</v>
@@ -5697,40 +5720,40 @@
     </row>
     <row r="7" spans="1:42" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>237</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M7" s="34" t="s">
         <v>161</v>
@@ -5739,116 +5762,116 @@
     </row>
     <row r="8" spans="1:42" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>273</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>274</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>237</v>
       </c>
       <c r="F8" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>280</v>
-      </c>
       <c r="J8" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="73" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>285</v>
-      </c>
       <c r="J10" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M10" s="34"/>
       <c r="N10" s="7"/>
@@ -5859,40 +5882,40 @@
     </row>
     <row r="11" spans="1:42" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M11" s="34"/>
       <c r="N11" s="7"/>
@@ -5902,749 +5925,773 @@
     </row>
     <row r="12" spans="1:42" ht="57.5" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:42" ht="72" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I13" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>363</v>
-      </c>
       <c r="J13" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M13" s="34"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:42" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D14" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>300</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>301</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M14" s="34"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:42" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:42" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="I17" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M17" s="34"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="73" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="I18" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M18" s="34"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A19" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>331</v>
-      </c>
       <c r="J19" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="34"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="85" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I20" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>336</v>
-      </c>
       <c r="J20" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="71" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>333</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>334</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M21" s="34"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="43" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E22" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="45" t="s">
         <v>333</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>334</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="43" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E23" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>333</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>334</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M23" s="34"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>244</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M24" s="34"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="57" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>201</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M25" s="34"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="71" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>240</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M26" s="34"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="57" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="45" t="s">
         <v>375</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>376</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F27" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="I27" s="45" t="s">
-        <v>379</v>
-      </c>
       <c r="J27" s="45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M27" s="34"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I28" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="I28" s="45" t="s">
-        <v>395</v>
-      </c>
       <c r="J28" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M28" s="34"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="45" t="s">
         <v>384</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>385</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I29" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>387</v>
-      </c>
       <c r="J29" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M29" s="34"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="44" x14ac:dyDescent="0.35">
       <c r="A30" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>188</v>
       </c>
       <c r="D30" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="45" t="s">
         <v>399</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>400</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I30" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>402</v>
-      </c>
       <c r="J30" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M30" s="34"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+    <row r="31" spans="1:14" ht="239" x14ac:dyDescent="0.35">
+      <c r="A31" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="M31" s="34"/>
       <c r="N31" s="7"/>
     </row>
@@ -11234,8 +11281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:C133"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11349,7 +11396,7 @@
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="85"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="49" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11379,7 +11426,7 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11399,25 +11446,25 @@
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="85"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="85"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="85"/>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="49" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11435,7 +11482,7 @@
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="85"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="49" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11513,7 +11560,7 @@
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="49" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11545,7 +11592,7 @@
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="85"/>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="49" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11565,7 +11612,7 @@
       <c r="A53" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="49" t="s">
         <v>155</v>
       </c>
     </row>
@@ -11603,7 +11650,7 @@
       <c r="A59" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -11699,7 +11746,7 @@
       <c r="A74" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="49" t="s">
         <v>102</v>
       </c>
     </row>
@@ -11763,7 +11810,7 @@
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="49" t="s">
         <v>198</v>
       </c>
     </row>
@@ -12177,7 +12224,7 @@
       <c r="A135" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="49" t="s">
         <v>174</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -12186,7 +12233,7 @@
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93"/>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="49" t="s">
         <v>175</v>
       </c>
       <c r="C136" s="16">
